--- a/decide.xlsx
+++ b/decide.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>Fondo</t>
-  </si>
-  <si>
-    <t>Comisión %</t>
-  </si>
-  <si>
-    <t>Rentabilidad %</t>
-  </si>
-  <si>
-    <t>Comisiones</t>
-  </si>
-  <si>
-    <t>Rentabilidad</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>CAPITAL</t>
-  </si>
-  <si>
-    <t>CUPRUM</t>
-  </si>
-  <si>
-    <t>HABITAT</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>PLANVITAL</t>
-  </si>
-  <si>
-    <t>PROVIDA</t>
-  </si>
-  <si>
-    <t>UNO</t>
-  </si>
-  <si>
-    <t>Fondo B</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,195 +420,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fondo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Comisión %</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rentabilidad %</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comisiones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rentabilidad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CAPITAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fondo A</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.0144</v>
       </c>
-      <c r="D2">
-        <v>-0.0205</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="E2" t="n">
         <v>128900.7216</v>
       </c>
-      <c r="F2">
-        <v>-302332.2821462327</v>
-      </c>
-      <c r="G2">
-        <v>-431233.0037462327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+      <c r="F2" t="n">
+        <v>5038550.786322381</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4909650.064722382</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CUPRUM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fondo A</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.0144</v>
       </c>
-      <c r="D3">
-        <v>-0.0189</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>0.1732</v>
+      </c>
+      <c r="E3" t="n">
         <v>128900.7216</v>
       </c>
-      <c r="F3">
-        <v>-279184.8830799409</v>
-      </c>
-      <c r="G3">
-        <v>-408085.6046799409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="F3" t="n">
+        <v>5166538.803563928</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5037638.081963928</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HABITAT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fondo A</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.0127</v>
       </c>
-      <c r="D4">
-        <v>-0.0186</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>0.1736</v>
+      </c>
+      <c r="E4" t="n">
         <v>113683.2753</v>
       </c>
-      <c r="F4">
-        <v>-274836.3306336427</v>
-      </c>
-      <c r="G4">
-        <v>-388519.6059336427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+      <c r="F4" t="n">
+        <v>5180423.808084797</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5066740.532784797</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fondo A</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>0.0058</v>
       </c>
-      <c r="D5">
-        <v>-0.0178</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>0.1808</v>
+      </c>
+      <c r="E5" t="n">
         <v>51918.3462</v>
       </c>
-      <c r="F5">
-        <v>-263227.1870874211</v>
-      </c>
-      <c r="G5">
-        <v>-315145.5332874211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
+      <c r="F5" t="n">
+        <v>5431976.065678459</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5380057.719478459</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PLANVITAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fondo A</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.0116</v>
       </c>
-      <c r="D6">
-        <v>-0.0169</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E6" t="n">
         <v>103836.6924</v>
       </c>
-      <c r="F6">
-        <v>-250144.276555112</v>
-      </c>
-      <c r="G6">
-        <v>-353980.968955112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="F6" t="n">
+        <v>5263932.778762241</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5160096.086362241</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PROVIDA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fondo A</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.0145</v>
       </c>
-      <c r="D7">
-        <v>-0.0249</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="E7" t="n">
         <v>129795.8655</v>
       </c>
-      <c r="F7">
-        <v>-365598.7112060451</v>
-      </c>
-      <c r="G7">
-        <v>-495394.5767060451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
+      <c r="F7" t="n">
+        <v>5121477.889101367</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4991682.023601367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UNO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fondo A</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.0049</v>
       </c>
-      <c r="D8">
-        <v>-0.0199</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="n">
+        <v>0.1786</v>
+      </c>
+      <c r="E8" t="n">
         <v>43862.0511</v>
       </c>
-      <c r="F8">
-        <v>-293660.8616047165</v>
-      </c>
-      <c r="G8">
-        <v>-337522.9127047164</v>
+      <c r="F8" t="n">
+        <v>5354786.281310553</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5310924.230210553</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>